--- a/model/src/Llama3B_no_rag_results_easy.xlsx
+++ b/model/src/Llama3B_no_rag_results_easy.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA29539-7A09-4D17-972A-A9050F6F8CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A611E3A0-264A-4DEA-A1BC-34D7661FD02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35430" yWindow="4245" windowWidth="13830" windowHeight="7110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>question</t>
   </si>
@@ -514,26 +527,6 @@
 Courses are assessed through a combination of exams, assignments, and projects.
 Please note that this information might be subject to change, and it's always best to check with the university or the program administrators for the most up-to-date information.
 I hope this helps! Do you have any other questions about the program?</t>
-  </si>
-  <si>
-    <t>What programming languages are taught in the Bachelor's in Data Science?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> program at the University of California, Berkeley?
-The University of California, Berkeley offers a Bachelor's degree in Data Science that is designed to provide students with a comprehensive education in data science. The curriculum includes coursework in both technical and non-technical aspects of data science.
-Here are some of the programming languages typically taught in the Data Science program at UC Berkeley:
-1. **Python**: Python is one of the most popular programming languages used in data science, and it's widely taught in the program. Students learn various libraries such as NumPy, pandas, scikit-learn, and TensorFlow.
-2. **R**: R is another popular language used extensively in data analysis and visualization. Many courses in the program cover R programming, including data manipulation, statistical modeling, and visualization using packages like ggplot2 and Shiny.
-3. **SQL**: SQL (Structured Query Language) is a fundamental language for working with relational databases. Students learn how to write efficient queries, create database schema, and perform data analysis using SQL.
-4. **Java**: Java is an object-oriented language commonly used in big data processing and machine learning applications. Some courses may introduce Java programming concepts, particularly those related to data processing and parallel computing.
-5. **Julia**: Julia is a new language gaining popularity in the data science community due to its high performance, dynamism, and ease of use. Some courses may explore Julia programming, especially those focused on numerical computations and scientific simulations.
-6. **MATLAB**: MATLAB is a high-level language used extensively in data analysis, numerical computation, and visualization. While not always required, many students find MATLAB useful for exploratory data analysis, signal processing, and image processing.
-7. **Other tools and technologies**: In addition to these programming languages, students also learn about other essential tools and technologies used in data science, such as:
-	* Data visualization libraries (e.g., Matplotlib, Seaborn)
-	* Machine learning frameworks (e.g., scikit-learn, TensorFlow)
-	* Big data processing frameworks (e.g., Hadoop, Spark)
-	* Cloud platforms (e.g., AWS, Google Cloud)
-Please note that the specific course offerings and programming languages taught can vary from semester to semester, depending on the instructor and the departmental focus. However, this gives you a general idea of the breadth of programming languages and skills covered in the Data Science program at UC Berkeley.</t>
   </si>
   <si>
     <t>How does the Master in Information Management, with a specialization in Business Intelligence prepare students for the digital transformation of businesses?</t>
@@ -1312,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1368,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1656,7 +1649,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>232.8890874385834</v>
+        <v>258.78168129920959</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1667,7 +1660,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>258.78168129920959</v>
+        <v>138.49822020530701</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1678,7 +1671,7 @@
         <v>65</v>
       </c>
       <c r="C33">
-        <v>138.49822020530701</v>
+        <v>170.5675075054169</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1689,7 +1682,7 @@
         <v>67</v>
       </c>
       <c r="C34">
-        <v>170.5675075054169</v>
+        <v>133.65482091903689</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1700,7 +1693,7 @@
         <v>69</v>
       </c>
       <c r="C35">
-        <v>133.65482091903689</v>
+        <v>179.92351365089419</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1711,7 +1704,7 @@
         <v>71</v>
       </c>
       <c r="C36">
-        <v>179.92351365089419</v>
+        <v>122.12785887718201</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1722,7 +1715,7 @@
         <v>73</v>
       </c>
       <c r="C37">
-        <v>122.12785887718201</v>
+        <v>123.2423210144043</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1733,7 +1726,7 @@
         <v>75</v>
       </c>
       <c r="C38">
-        <v>123.2423210144043</v>
+        <v>106.7098920345306</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1744,7 +1737,7 @@
         <v>77</v>
       </c>
       <c r="C39">
-        <v>106.7098920345306</v>
+        <v>303.7190523147583</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1755,7 +1748,7 @@
         <v>79</v>
       </c>
       <c r="C40">
-        <v>303.7190523147583</v>
+        <v>140.19866180419919</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1766,7 +1759,7 @@
         <v>81</v>
       </c>
       <c r="C41">
-        <v>140.19866180419919</v>
+        <v>200.28169298172</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1777,7 +1770,7 @@
         <v>83</v>
       </c>
       <c r="C42">
-        <v>200.28169298172</v>
+        <v>99.714688777923584</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1788,7 +1781,7 @@
         <v>85</v>
       </c>
       <c r="C43">
-        <v>99.714688777923584</v>
+        <v>134.7751190662384</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1799,7 +1792,7 @@
         <v>87</v>
       </c>
       <c r="C44">
-        <v>134.7751190662384</v>
+        <v>169.53814458847049</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1810,7 +1803,7 @@
         <v>89</v>
       </c>
       <c r="C45">
-        <v>169.53814458847049</v>
+        <v>128.5299186706543</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1821,7 +1814,7 @@
         <v>91</v>
       </c>
       <c r="C46">
-        <v>128.5299186706543</v>
+        <v>109.80517864227291</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1832,7 +1825,7 @@
         <v>93</v>
       </c>
       <c r="C47">
-        <v>109.80517864227291</v>
+        <v>115.35467624664309</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1843,7 +1836,7 @@
         <v>95</v>
       </c>
       <c r="C48">
-        <v>115.35467624664309</v>
+        <v>6494.3915178775787</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1854,7 +1847,7 @@
         <v>97</v>
       </c>
       <c r="C49">
-        <v>6494.3915178775787</v>
+        <v>352.67647671699518</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,7 +1858,7 @@
         <v>99</v>
       </c>
       <c r="C50">
-        <v>352.67647671699518</v>
+        <v>244.595579624176</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1876,7 +1869,7 @@
         <v>101</v>
       </c>
       <c r="C51">
-        <v>244.595579624176</v>
+        <v>179.6166543960571</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1887,18 +1880,13 @@
         <v>103</v>
       </c>
       <c r="C52">
-        <v>179.6166543960571</v>
+        <v>305.1062376499176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
       <c r="C53">
-        <v>305.1062376499176</v>
+        <f>AVERAGE(C2:C52)</f>
+        <v>283.98925525534389</v>
       </c>
     </row>
   </sheetData>
